--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/FLORIDA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/FLORIDA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1711"/>
+  <dimension ref="A1:D1705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C38">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C41">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C51">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C58">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C86">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C91">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C104">
@@ -1896,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="D116">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="117">
@@ -2271,7 +2271,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C145">
@@ -2297,7 +2297,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C147">
@@ -2440,7 +2440,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C158">
@@ -2453,7 +2453,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C159">
@@ -2822,7 +2822,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C187">
@@ -2970,7 +2970,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C198">
@@ -2996,7 +2996,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3053,7 +3053,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C204">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C230">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C233">
@@ -3526,7 +3526,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C240">
@@ -3539,7 +3539,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C241">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C242">
@@ -3682,12 +3682,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C252">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C255">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C257">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C263">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C269">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C274">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C280">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C286">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C299">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C310">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C312">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C314">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C316">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C325">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C335">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C341">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C342">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C343">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C344">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C356">
@@ -5057,7 +5057,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C358">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C366">
@@ -5226,7 +5226,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C370">
@@ -5330,7 +5330,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C378">
@@ -5382,7 +5382,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C382">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C384">
@@ -5434,7 +5434,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C386">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C388">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C390">
@@ -5551,7 +5551,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C395">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C401">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C404">
@@ -5686,14 +5686,14 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C405">
         <v>25</v>
       </c>
       <c r="D405">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="406">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C409">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C412">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C416">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C418">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C423">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C424">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C429">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C435">
@@ -6089,14 +6089,14 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C436">
         <v>24</v>
       </c>
       <c r="D436">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="437">
@@ -6115,20 +6115,20 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C438">
         <v>25</v>
       </c>
       <c r="D438">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C441">
@@ -6193,7 +6193,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C444">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C457">
@@ -6388,7 +6388,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C459">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C461">
@@ -6440,7 +6440,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C463">
@@ -6492,7 +6492,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C467">
@@ -6505,7 +6505,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C468">
@@ -6616,7 +6616,7 @@
         <v>2575</v>
       </c>
       <c r="D476">
-        <v>0.09694300128002409</v>
+        <v>0.09694300128002407</v>
       </c>
     </row>
     <row r="477">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C485">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C486">
@@ -6822,14 +6822,14 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C492">
         <v>25</v>
       </c>
       <c r="D492">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="493">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C498">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C502">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C505">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C512">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C515">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C517">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C519">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C522">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C528">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C532">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C533">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C534">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C535">
@@ -7459,7 +7459,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C541">
@@ -7472,7 +7472,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C542">
@@ -7485,7 +7485,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C543">
@@ -7511,7 +7511,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C545">
@@ -7524,7 +7524,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C551">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C556">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C570">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C575">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C578">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C582">
@@ -8082,13 +8082,13 @@
         <v>24</v>
       </c>
       <c r="D588">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C589">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C594">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C596">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C597">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C599">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C601">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C602">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C606">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C612">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C615">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C621">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C622">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C625">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C626">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C629">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C630">
@@ -8854,7 +8854,7 @@
         <v>25</v>
       </c>
       <c r="D647">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="648">
@@ -8925,7 +8925,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C653">
@@ -8951,7 +8951,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C655">
@@ -9387,7 +9387,7 @@
         <v>24</v>
       </c>
       <c r="D688">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="689">
@@ -9478,7 +9478,7 @@
         <v>25</v>
       </c>
       <c r="D695">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="696">
@@ -9543,7 +9543,7 @@
         <v>24</v>
       </c>
       <c r="D700">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="701">
@@ -9783,7 +9783,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C719">
@@ -10113,7 +10113,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C744">
@@ -10217,7 +10217,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C752">
@@ -10269,7 +10269,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C756">
@@ -10321,7 +10321,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C760">
@@ -10347,7 +10347,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C762">
@@ -10451,7 +10451,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C770">
@@ -10508,7 +10508,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C774">
@@ -10521,7 +10521,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C775">
@@ -10547,7 +10547,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C777">
@@ -10638,7 +10638,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C784">
@@ -10916,7 +10916,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C805">
@@ -10968,7 +10968,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C809">
@@ -11033,7 +11033,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C814">
@@ -11079,7 +11079,7 @@
         <v>255</v>
       </c>
       <c r="D817">
-        <v>0.009600180709283939</v>
+        <v>0.00960018070928394</v>
       </c>
     </row>
     <row r="818">
@@ -11103,14 +11103,14 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C819">
         <v>24</v>
       </c>
       <c r="D819">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="820">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C827">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C830">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C833">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C835">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C837">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,20 +11415,20 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C843">
         <v>24</v>
       </c>
       <c r="D843">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C844">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C851">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C853">
@@ -11565,13 +11565,13 @@
         <v>24</v>
       </c>
       <c r="D854">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C857">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C858">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C863">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C866">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C881">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C884">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C898">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C904">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C918">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C933">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C934">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C967">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C977">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C978">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C994">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C997">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1010">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1027">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1032">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1036">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1038">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1045">
@@ -14074,7 +14074,7 @@
         <v>25</v>
       </c>
       <c r="D1047">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="1048">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1051">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1076">
@@ -14795,7 +14795,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1103">
@@ -15042,7 +15042,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1122">
@@ -15068,7 +15068,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1124">
@@ -15081,7 +15081,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1125">
@@ -15094,7 +15094,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1126">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1127">
@@ -15120,7 +15120,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1128">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1129">
@@ -15146,7 +15146,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1130">
@@ -15172,7 +15172,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1132">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1133">
@@ -15198,7 +15198,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1134">
@@ -15211,7 +15211,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1135">
@@ -15237,7 +15237,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1137">
@@ -15250,7 +15250,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1138">
@@ -15263,7 +15263,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1139">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1159">
@@ -15639,7 +15639,7 @@
         <v>24</v>
       </c>
       <c r="D1167">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="1168">
@@ -15671,7 +15671,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1170">
@@ -15762,7 +15762,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1177">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1178">
@@ -15918,7 +15918,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1189">
@@ -15957,7 +15957,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1192">
@@ -15996,7 +15996,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1195">
@@ -16126,7 +16126,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1205">
@@ -16243,7 +16243,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1214">
@@ -16464,7 +16464,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1231">
@@ -16503,7 +16503,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1234">
@@ -16516,7 +16516,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1235">
@@ -16581,7 +16581,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1240">
@@ -16672,7 +16672,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1247">
@@ -16685,7 +16685,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1248">
@@ -16750,7 +16750,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1253">
@@ -16763,7 +16763,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1254">
@@ -16776,7 +16776,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1255">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1256">
@@ -16854,7 +16854,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1261">
@@ -16997,7 +16997,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1272">
@@ -17049,7 +17049,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1276">
@@ -17275,14 +17275,14 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1293">
         <v>25</v>
       </c>
       <c r="D1293">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="1294">
@@ -17301,7 +17301,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1295">
@@ -17379,7 +17379,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1301">
@@ -17392,7 +17392,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1302">
@@ -17431,7 +17431,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1305">
@@ -17470,7 +17470,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1308">
@@ -17623,7 +17623,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1319">
@@ -17636,7 +17636,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1320">
@@ -17714,7 +17714,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1326">
@@ -17838,13 +17838,13 @@
         <v>24</v>
       </c>
       <c r="D1335">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1336">
@@ -17909,7 +17909,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1341">
@@ -17987,7 +17987,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1347">
@@ -18013,7 +18013,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1349">
@@ -18033,7 +18033,7 @@
         <v>24</v>
       </c>
       <c r="D1350">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="1351">
@@ -18104,7 +18104,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1356">
@@ -18156,7 +18156,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1360">
@@ -18169,7 +18169,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1361">
@@ -18182,7 +18182,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1362">
@@ -18195,7 +18195,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1363">
@@ -18208,7 +18208,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1364">
@@ -18711,7 +18711,7 @@
         <v>25</v>
       </c>
       <c r="D1401">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="1402">
@@ -18821,7 +18821,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1410">
@@ -19028,7 +19028,7 @@
         <v>24</v>
       </c>
       <c r="D1425">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="1426">
@@ -19294,7 +19294,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1446">
@@ -19416,7 +19416,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1455">
@@ -19507,7 +19507,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1462">
@@ -19572,7 +19572,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1467">
@@ -19598,7 +19598,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1469">
@@ -19663,7 +19663,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1474">
@@ -19793,7 +19793,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1484">
@@ -19915,7 +19915,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1493">
@@ -19967,7 +19967,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1497">
@@ -20097,7 +20097,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1507">
@@ -20162,7 +20162,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1512">
@@ -20188,7 +20188,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1514">
@@ -20292,7 +20292,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1522">
@@ -20422,7 +20422,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1532">
@@ -20435,7 +20435,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1533">
@@ -20598,7 +20598,7 @@
         <v>25</v>
       </c>
       <c r="D1545">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="1546">
@@ -20630,7 +20630,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1548">
@@ -20643,7 +20643,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1549">
@@ -20682,7 +20682,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1552">
@@ -20695,7 +20695,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1553">
@@ -20708,7 +20708,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1554">
@@ -20721,7 +20721,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1555">
@@ -20851,7 +20851,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1565">
@@ -20903,7 +20903,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1569">
@@ -20916,7 +20916,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1570">
@@ -20955,7 +20955,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1573">
@@ -20981,7 +20981,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1575">
@@ -21033,7 +21033,7 @@
     <row r="1579">
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1579">
@@ -21163,7 +21163,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1589">
@@ -21202,7 +21202,7 @@
     <row r="1592">
       <c r="B1592" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1592">
@@ -21215,7 +21215,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1593">
@@ -21254,7 +21254,7 @@
     <row r="1596">
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1596">
@@ -21371,7 +21371,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1605">
@@ -21410,7 +21410,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1608">
@@ -21475,7 +21475,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1613">
@@ -21709,7 +21709,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1631">
@@ -21729,7 +21729,7 @@
         <v>25</v>
       </c>
       <c r="D1632">
-        <v>0.0009411941871846999</v>
+        <v>0.0009411941871847</v>
       </c>
     </row>
     <row r="1633">
@@ -21865,7 +21865,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1643">
@@ -21956,7 +21956,7 @@
     <row r="1650">
       <c r="B1650" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1650">
@@ -22200,7 +22200,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1668">
@@ -22226,7 +22226,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1670">
@@ -22246,7 +22246,7 @@
         <v>24</v>
       </c>
       <c r="D1671">
-        <v>0.0009035464196973119</v>
+        <v>0.000903546419697312</v>
       </c>
     </row>
     <row r="1672">
@@ -22343,7 +22343,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1679">
@@ -22434,7 +22434,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1686">
@@ -22447,7 +22447,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1687">
@@ -22551,7 +22551,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1695">
@@ -22590,7 +22590,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1698">
@@ -22689,41 +22689,6 @@
       </c>
       <c r="D1705">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
